--- a/9-Presentations/GSC 2025/1-Data/WG2_Ice_data.xlsx
+++ b/9-Presentations/GSC 2025/1-Data/WG2_Ice_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cd2dd71d79f43c4e/Documents/GitHub/Winter-Grab-Thesis-project/9-Presentations/GSC 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homes.mtu.edu\home\Documents\GitHub\Winter-Grab-Thesis-project\9-Presentations\GSC 2025\1-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F0634-420B-4857-A16E-B2C35F2296CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3653FF80-6B5D-46E4-A77A-4761536DC726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{315C03ED-2DC1-4BE9-89CE-6E94FB34B97A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{315C03ED-2DC1-4BE9-89CE-6E94FB34B97A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,17 +677,17 @@
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -758,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -794,7 +794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -830,7 +830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -866,7 +866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -902,7 +902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -938,7 +938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>30</v>
       </c>
@@ -974,7 +974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>45</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>39</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>39</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>39</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>39</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>52</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>24</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>32</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>10</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>10</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>27</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>69</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>39</v>
       </c>
